--- a/wzrv/expdata/1000.xlsx
+++ b/wzrv/expdata/1000.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="465" windowWidth="28035" windowHeight="16335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -450,18 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="15" width="10.875" style="1"/>
+    <col min="15" max="16" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -478,43 +478,46 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -531,46 +534,49 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="F2" s="1">
+        <v>-1.24</v>
+      </c>
+      <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>-0.312</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O2" s="1">
-        <f>0.033*I2</f>
+      <c r="P2" s="1">
+        <f>0.033*J2</f>
         <v>-1.0296000000000001E-2</v>
       </c>
-      <c r="P2">
-        <f>SQRT(K2*K2-N2*N2-O2*O2)</f>
+      <c r="Q2">
+        <f>SQRT(L2*L2-O2*O2-P2*P2)</f>
         <v>1.2569502138111916E-2</v>
       </c>
-      <c r="Q2">
-        <f>SQRT(N2*N2+O2*O2)</f>
+      <c r="R2">
+        <f>SQRT(O2*O2+P2*P2)</f>
         <v>1.1445855843928841E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -587,46 +593,49 @@
         <v>-0.5</v>
       </c>
       <c r="F3" s="1">
+        <v>-0.72</v>
+      </c>
+      <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>-0.251</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.03</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O7" si="0">0.033*I3</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P7" si="0">0.033*J3</f>
         <v>-8.2830000000000004E-3</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P7" si="1">SQRT(K3*K3-N3*N3-O3*O3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="1">SQRT(L3*L3-O3*O3-P3*P3)</f>
         <v>1.0118888822395471E-2</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="2">SQRT(N3*N3+O3*O3)</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="2">SQRT(O3*O3+P3*P3)</f>
         <v>9.6751273376633144E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -643,46 +652,49 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>-1.0923E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>7.1894416333954615E-3</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>1.2012990010817457E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -699,46 +711,49 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>-0.41199999999999998</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>-1.3596E-2</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>6.7932896302159802E-3</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>1.4486242300886729E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -755,46 +770,49 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F6" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>-0.53400000000000003</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>-1.7622000000000002E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>1.2184626215030145E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>1.8317611307154657E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -811,41 +829,44 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>-0.48199999999999998</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>-1.5906E-2</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>1.4352670970937776E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>1.6673357070488233E-2</v>
       </c>

--- a/wzrv/expdata/1000.xlsx
+++ b/wzrv/expdata/1000.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537259B-9F1A-A143-AC37-E61AF9457C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="640" yWindow="1880" windowWidth="28800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -51,9 +55,6 @@
   </si>
   <si>
     <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
   <si>
     <t>boson</t>
@@ -101,9 +102,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,80 +461,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="16" width="10.875" style="1"/>
+    <col min="14" max="15" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -539,49 +548,46 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.312</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.312</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="L2" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f>0.033*J2</f>
+        <f>0.033*I2</f>
         <v>-1.0296000000000001E-2</v>
       </c>
+      <c r="P2">
+        <f>SQRT(K2*K2-N2*N2-O2*O2)</f>
+        <v>1.2569502138111916E-2</v>
+      </c>
       <c r="Q2">
-        <f>SQRT(L2*L2-O2*O2-P2*P2)</f>
-        <v>1.2569502138111916E-2</v>
-      </c>
-      <c r="R2">
-        <f>SQRT(O2*O2+P2*P2)</f>
+        <f>SQRT(N2*N2+O2*O2)</f>
         <v>1.1445855843928841E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -598,49 +604,46 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.251</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.251</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P7" si="0">0.033*J3</f>
+        <f t="shared" ref="O3:O7" si="0">0.033*I3</f>
         <v>-8.2830000000000004E-3</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="1">SQRT(K3*K3-N3*N3-O3*O3)</f>
+        <v>1.0118888822395471E-2</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="1">SQRT(L3*L3-O3*O3-P3*P3)</f>
-        <v>1.0118888822395471E-2</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R7" si="2">SQRT(O3*O3+P3*P3)</f>
+        <f t="shared" ref="Q3:Q7" si="2">SQRT(N3*N3+O3*O3)</f>
         <v>9.6751273376633144E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -657,49 +660,46 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.33100000000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.33100000000000002</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="L4" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O4" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>-1.0923E-2</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>7.1894416333954615E-3</v>
       </c>
-      <c r="R4">
+      <c r="Q4">
         <f t="shared" si="2"/>
         <v>1.2012990010817457E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -716,49 +716,46 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.41199999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.41199999999999998</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="L5" s="1">
         <v>1.6E-2</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O5" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>-1.3596E-2</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>6.7932896302159802E-3</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>1.4486242300886729E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>510</v>
@@ -775,49 +772,46 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.53400000000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>-0.53400000000000003</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="L6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>-1.7622000000000002E-2</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>1.2184626215030145E-2</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>1.8317611307154657E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -834,39 +828,36 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.48199999999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.48199999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K7" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L7" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O7" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>-1.5906E-2</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>1.4352670970937776E-2</v>
       </c>
-      <c r="R7">
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>1.6673357070488233E-2</v>
       </c>

--- a/wzrv/expdata/1000.xlsx
+++ b/wzrv/expdata/1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537259B-9F1A-A143-AC37-E61AF9457C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8736F9-8BE1-E44A-8FAC-7C5FFA7CCEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1880" windowWidth="28800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>W-</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,6 +865,342 @@
         <v>1.6673357070488233E-2</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>510</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1.27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <f>0.033*I8</f>
+        <v>7.953E-3</v>
+      </c>
+      <c r="P8">
+        <f>SQRT(K8*K8-N8*N8-O8*O8)</f>
+        <v>3.4277968142817348E-3</v>
+      </c>
+      <c r="Q8">
+        <f>SQRT(N8*N8+O8*O8)</f>
+        <v>9.394158237968955E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>510</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O13" si="3">0.033*I9</f>
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P13" si="4">SQRT(K9*K9-N9*N9-O9*O9)</f>
+        <v>1.1762652762026082E-3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q13" si="5">SQRT(N9*N9+O9*O9)</f>
+        <v>9.9305790364912772E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>510</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.27</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2730000000000017E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>3.1640908646876683E-3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1.0535109349218927E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>510</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8869999999999999E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>3.5770422138968411E-3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>9.3383493723462711E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>510</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2705000000000001E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>3.0956380602389527E-3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1.3653462015181353E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>510</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7650000000000002E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>3.1991834895798007E-3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>8.4122069042552681E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wzrv/expdata/1000.xlsx
+++ b/wzrv/expdata/1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8736F9-8BE1-E44A-8FAC-7C5FFA7CCEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6E96E-94F6-794C-BFEA-00C00726E2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
